--- a/Cleaned-Data/2016-Passouts/Sem-4_2016_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2016-Passouts/Sem-4_2016_Passout_cleaned.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashant/Downloads/Student-Placement-Guidance/Cleaned-Data/2016-Passouts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tejas\Student-Placement-Guidance\Cleaned-Data\2016-Passouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15300"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P</t>
@@ -629,7 +626,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1001,41 +998,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="125" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="125" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.19921875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.19921875" style="5"/>
+    <col min="20" max="20" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1064,10 +1061,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
@@ -1076,10 +1073,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>10</v>
@@ -1088,10 +1085,10 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>12</v>
@@ -1100,21 +1097,21 @@
         <v>13</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="B2" s="1">
         <v>144201</v>
@@ -1185,13 +1182,13 @@
       <c r="X2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>144202</v>
@@ -1262,13 +1259,13 @@
       <c r="X3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>144203</v>
@@ -1339,13 +1336,13 @@
       <c r="X4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>144204</v>
@@ -1416,13 +1413,13 @@
       <c r="X5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>144205</v>
@@ -1493,13 +1490,13 @@
       <c r="X6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1">
         <v>144206</v>
@@ -1568,15 +1565,15 @@
         <v>22</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="5">
         <v>6.68</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>144207</v>
@@ -1647,13 +1644,13 @@
       <c r="X8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>144208</v>
@@ -1724,13 +1721,13 @@
       <c r="X9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>144209</v>
@@ -1799,15 +1796,15 @@
         <v>20</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="5">
         <v>6.18</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>144210</v>
@@ -1876,15 +1873,15 @@
         <v>21</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="5">
         <v>6.18</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1">
         <v>144363</v>
@@ -1955,13 +1952,13 @@
       <c r="X12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>144211</v>
@@ -2030,15 +2027,15 @@
         <v>21</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y13" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>144212</v>
@@ -2109,13 +2106,13 @@
       <c r="X14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>144213</v>
@@ -2186,13 +2183,13 @@
       <c r="X15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>144214</v>
@@ -2261,15 +2258,15 @@
         <v>23</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y16" s="5">
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="1">
         <v>144215</v>
@@ -2338,15 +2335,15 @@
         <v>22</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y17" s="5">
         <v>6.82</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>144216</v>
@@ -2415,15 +2412,15 @@
         <v>23</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y18" s="5">
         <v>6.46</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>144217</v>
@@ -2492,15 +2489,15 @@
         <v>23</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y19" s="5">
         <v>7.89</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>144218</v>
@@ -2569,15 +2566,15 @@
         <v>23</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y20" s="5">
         <v>6.54</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="1">
         <v>144219</v>
@@ -2648,13 +2645,13 @@
       <c r="X21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>144220</v>
@@ -2725,13 +2722,13 @@
       <c r="X22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>144221</v>
@@ -2800,15 +2797,15 @@
         <v>22</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y23" s="5">
         <v>6.71</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <v>144222</v>
@@ -2877,15 +2874,15 @@
         <v>22</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y24" s="5">
         <v>6.54</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
         <v>144223</v>
@@ -2956,13 +2953,13 @@
       <c r="X25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>144224</v>
@@ -3031,15 +3028,15 @@
         <v>22</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y26" s="5">
         <v>8.39</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="1">
         <v>144225</v>
@@ -3108,15 +3105,15 @@
         <v>23</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y27" s="5">
         <v>7.71</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
         <v>144226</v>
@@ -3185,15 +3182,15 @@
         <v>21</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y28" s="5">
         <v>6.68</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
         <v>144227</v>
@@ -3262,15 +3259,15 @@
         <v>23</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y29" s="5">
         <v>7.21</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1">
         <v>144228</v>
@@ -3339,15 +3336,15 @@
         <v>21</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y30" s="5">
         <v>6.61</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
         <v>144229</v>
@@ -3416,15 +3413,15 @@
         <v>24</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y31" s="5">
         <v>7.71</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>144230</v>
@@ -3495,13 +3492,13 @@
       <c r="X32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y32" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
         <v>144231</v>
@@ -3572,13 +3569,13 @@
       <c r="X33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>144232</v>
@@ -3647,15 +3644,15 @@
         <v>21</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y34" s="5">
         <v>7.96</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>144233</v>
@@ -3724,15 +3721,15 @@
         <v>24</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y35" s="5">
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
         <v>144234</v>
@@ -3801,15 +3798,15 @@
         <v>23</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y36" s="5">
         <v>7.57</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1">
         <v>144235</v>
@@ -3878,15 +3875,15 @@
         <v>23</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y37" s="5">
         <v>6.46</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
         <v>144236</v>
@@ -3957,13 +3954,13 @@
       <c r="X38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y38" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
         <v>144237</v>
@@ -4034,13 +4031,13 @@
       <c r="X39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1">
         <v>144238</v>
@@ -4109,15 +4106,15 @@
         <v>22</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y40" s="5">
         <v>7.21</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1">
         <v>144239</v>
@@ -4186,15 +4183,15 @@
         <v>22</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y41" s="5">
         <v>7.75</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>144240</v>
@@ -4263,15 +4260,15 @@
         <v>21</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y42" s="5">
         <v>6.21</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1">
         <v>144241</v>
@@ -4342,13 +4339,13 @@
       <c r="X43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y43" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
         <v>144242</v>
@@ -4419,13 +4416,13 @@
       <c r="X44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y44" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1">
         <v>144243</v>
@@ -4494,15 +4491,15 @@
         <v>22</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y45" s="5">
         <v>8.11</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1">
         <v>144244</v>
@@ -4573,13 +4570,13 @@
       <c r="X46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y46" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1">
         <v>144245</v>
@@ -4650,13 +4647,13 @@
       <c r="X47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y47" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1">
         <v>144246</v>
@@ -4725,15 +4722,15 @@
         <v>22</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y48" s="5">
         <v>8.07</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" s="1">
         <v>144247</v>
@@ -4804,13 +4801,13 @@
       <c r="X49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y49" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>144248</v>
@@ -4881,13 +4878,13 @@
       <c r="X50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y50" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="1">
         <v>144249</v>
@@ -4956,15 +4953,15 @@
         <v>22</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y51" s="5">
         <v>7.79</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <v>144250</v>
@@ -5033,15 +5030,15 @@
         <v>20</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y52" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
         <v>144251</v>
@@ -5110,15 +5107,15 @@
         <v>20</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y53" s="5">
         <v>7.07</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>144252</v>
@@ -5187,15 +5184,15 @@
         <v>21</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y54" s="5">
         <v>6.43</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>144253</v>
@@ -5264,15 +5261,15 @@
         <v>21</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y55" s="5">
         <v>8.89</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>144254</v>
@@ -5341,15 +5338,15 @@
         <v>22</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y56" s="5">
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
         <v>144255</v>
@@ -5420,13 +5417,13 @@
       <c r="X57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="1">
         <v>144256</v>
@@ -5495,15 +5492,15 @@
         <v>23</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y58" s="5">
         <v>7.93</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1">
         <v>144257</v>
@@ -5572,15 +5569,15 @@
         <v>21</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y59" s="5">
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B60" s="1">
         <v>144258</v>
@@ -5649,15 +5646,15 @@
         <v>23</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y60" s="5">
         <v>9.25</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
         <v>144259</v>
@@ -5728,13 +5725,13 @@
       <c r="X61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y61" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1">
         <v>144260</v>
@@ -5805,13 +5802,13 @@
       <c r="X62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y62" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="1">
         <v>144261</v>
@@ -5880,15 +5877,15 @@
         <v>22</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y63" s="5">
         <v>7.14</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>144262</v>
@@ -5957,15 +5954,15 @@
         <v>24</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y64" s="5">
         <v>8.82</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>144263</v>
@@ -6034,15 +6031,15 @@
         <v>22</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y65" s="5">
         <v>5.89</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>144264</v>
@@ -6111,15 +6108,15 @@
         <v>22</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y66" s="5">
         <v>7.93</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
         <v>144265</v>
@@ -6190,13 +6187,13 @@
       <c r="X67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y67" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>144266</v>
@@ -6265,15 +6262,15 @@
         <v>22</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y68" s="5">
         <v>7.36</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69" s="1">
         <v>144267</v>
@@ -6342,15 +6339,15 @@
         <v>22</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y69" s="5">
         <v>7.75</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>144268</v>
@@ -6419,15 +6416,15 @@
         <v>20</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y70" s="5">
         <v>6.25</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>144269</v>
@@ -6496,15 +6493,15 @@
         <v>21</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y71" s="5">
         <v>6.96</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>144270</v>
@@ -6573,15 +6570,15 @@
         <v>24</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y72" s="5">
         <v>7.68</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>144271</v>
@@ -6650,15 +6647,15 @@
         <v>21</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y73" s="5">
         <v>7.11</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="1">
         <v>144272</v>
@@ -6727,15 +6724,15 @@
         <v>22</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y74" s="5">
         <v>6.61</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>144273</v>
@@ -6804,15 +6801,15 @@
         <v>23</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y75" s="5">
         <v>7.54</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>144274</v>
@@ -6881,15 +6878,15 @@
         <v>22</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y76" s="5">
         <v>7.57</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" s="1">
         <v>144275</v>
@@ -6960,13 +6957,13 @@
       <c r="X77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y77" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
         <v>144276</v>
@@ -7037,13 +7034,13 @@
       <c r="X78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y78" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
         <v>144277</v>
@@ -7112,15 +7109,15 @@
         <v>22</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y79" s="5">
         <v>7.32</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1">
         <v>144278</v>
@@ -7189,15 +7186,15 @@
         <v>24</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y80" s="5">
         <v>7.46</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1">
         <v>144279</v>
@@ -7268,13 +7265,13 @@
       <c r="X81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y81" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="1">
         <v>144280</v>
@@ -7345,13 +7342,13 @@
       <c r="X82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y82" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1">
         <v>144281</v>
@@ -7422,13 +7419,13 @@
       <c r="X83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y83" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1">
         <v>144282</v>
@@ -7499,13 +7496,13 @@
       <c r="X84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y84" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" s="1">
         <v>144365</v>
@@ -7574,15 +7571,15 @@
         <v>21</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y85" s="5">
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B86" s="1">
         <v>144354</v>
@@ -7651,15 +7648,15 @@
         <v>22</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y86" s="5">
         <v>6.5</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1">
         <v>144283</v>
@@ -7730,13 +7727,13 @@
       <c r="X87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y87" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1">
         <v>144284</v>
@@ -7805,15 +7802,15 @@
         <v>20</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y88" s="5">
         <v>7.18</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B89" s="1">
         <v>144285</v>
@@ -7884,13 +7881,13 @@
       <c r="X89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y89" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="1">
         <v>144286</v>
@@ -7959,15 +7956,15 @@
         <v>24</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y90" s="5">
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91" s="1">
         <v>144364</v>
@@ -8036,15 +8033,15 @@
         <v>24</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y91" s="5">
         <v>5.75</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" s="1">
         <v>144287</v>
@@ -8113,15 +8110,15 @@
         <v>21</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y92" s="5">
         <v>7.54</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93" s="1">
         <v>144288</v>
@@ -8192,13 +8189,13 @@
       <c r="X93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y93" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B94" s="1">
         <v>144289</v>
@@ -8267,15 +8264,15 @@
         <v>22</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y94" s="5">
         <v>7.21</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="1">
         <v>144290</v>
@@ -8346,13 +8343,13 @@
       <c r="X95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y95" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1">
         <v>144291</v>
@@ -8421,15 +8418,15 @@
         <v>24</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y96" s="5">
         <v>6.75</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1">
         <v>144292</v>
@@ -8498,15 +8495,15 @@
         <v>20</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y97" s="5">
         <v>7.39</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B98" s="1">
         <v>144293</v>
@@ -8577,13 +8574,13 @@
       <c r="X98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y98" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B99" s="1">
         <v>144294</v>
@@ -8652,15 +8649,15 @@
         <v>24</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y99" s="5">
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="1">
         <v>144295</v>
@@ -8729,15 +8726,15 @@
         <v>23</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y100" s="5">
         <v>7.43</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="1">
         <v>144296</v>
@@ -8808,13 +8805,13 @@
       <c r="X101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y101" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" s="1">
         <v>144366</v>
@@ -8883,15 +8880,15 @@
         <v>21</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y102" s="5">
         <v>5.89</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="1">
         <v>144297</v>
@@ -8962,13 +8959,13 @@
       <c r="X103" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y103" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104" s="1">
         <v>144298</v>
@@ -9037,15 +9034,15 @@
         <v>23</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y104" s="5">
         <v>7.36</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B105" s="1">
         <v>144299</v>
@@ -9116,13 +9113,13 @@
       <c r="X105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y105" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B106" s="1">
         <v>144300</v>
@@ -9191,15 +9188,15 @@
         <v>24</v>
       </c>
       <c r="X106" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y106" s="5">
         <v>7.46</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="1">
         <v>144301</v>
@@ -9270,13 +9267,13 @@
       <c r="X107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y107" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" s="1">
         <v>144302</v>
@@ -9345,15 +9342,15 @@
         <v>21</v>
       </c>
       <c r="X108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y108" s="5">
         <v>7.36</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1">
         <v>144303</v>
@@ -9422,15 +9419,15 @@
         <v>24</v>
       </c>
       <c r="X109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y109" s="5">
         <v>8.61</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B110" s="1">
         <v>144304</v>
@@ -9501,13 +9498,13 @@
       <c r="X110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y110" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1">
         <v>144305</v>
@@ -9576,15 +9573,15 @@
         <v>23</v>
       </c>
       <c r="X111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y111" s="5">
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B112" s="1">
         <v>144306</v>
@@ -9655,13 +9652,13 @@
       <c r="X112" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y112" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="1">
         <v>144307</v>
@@ -9732,13 +9729,13 @@
       <c r="X113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y113" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" s="1">
         <v>144308</v>
@@ -9807,15 +9804,15 @@
         <v>23</v>
       </c>
       <c r="X114" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y114" s="5">
         <v>8.14</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="1">
         <v>144309</v>
@@ -9884,15 +9881,15 @@
         <v>23</v>
       </c>
       <c r="X115" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y115" s="5">
         <v>7.54</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116" s="1">
         <v>144310</v>
@@ -9961,15 +9958,15 @@
         <v>21</v>
       </c>
       <c r="X116" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y116" s="5">
         <v>7.32</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B117" s="1">
         <v>144311</v>
@@ -10040,13 +10037,13 @@
       <c r="X117" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y117" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118" s="1">
         <v>144312</v>
@@ -10117,13 +10114,13 @@
       <c r="X118" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y118" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B119" s="1">
         <v>144313</v>
@@ -10194,13 +10191,13 @@
       <c r="X119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y119" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="1">
         <v>144314</v>
@@ -10271,13 +10268,13 @@
       <c r="X120" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y120" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121" s="1">
         <v>144315</v>
@@ -10348,13 +10345,13 @@
       <c r="X121" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y121" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" s="1">
         <v>144316</v>
@@ -10425,13 +10422,13 @@
       <c r="X122" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y122" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123" s="1">
         <v>144370</v>
@@ -10500,15 +10497,15 @@
         <v>16</v>
       </c>
       <c r="X123" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y123" s="5">
         <v>5.36</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B124" s="1">
         <v>144317</v>
@@ -10579,13 +10576,13 @@
       <c r="X124" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y124" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125" s="1">
         <v>144318</v>
@@ -10656,13 +10653,13 @@
       <c r="X125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y125" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B126" s="1">
         <v>144319</v>
@@ -10731,15 +10728,15 @@
         <v>23</v>
       </c>
       <c r="X126" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y126" s="5">
         <v>7.18</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B127" s="1">
         <v>144320</v>
@@ -10810,13 +10807,13 @@
       <c r="X127" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y127" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B128" s="1">
         <v>144321</v>
@@ -10887,13 +10884,13 @@
       <c r="X128" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y128" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B129" s="1">
         <v>144322</v>
@@ -10964,13 +10961,13 @@
       <c r="X129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y129" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B130" s="1">
         <v>144323</v>
@@ -11041,13 +11038,13 @@
       <c r="X130" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y130" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B131" s="1">
         <v>144324</v>
@@ -11118,13 +11115,13 @@
       <c r="X131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y131" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B132" s="1">
         <v>144325</v>
@@ -11195,13 +11192,13 @@
       <c r="X132" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y132" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B133" s="1">
         <v>144326</v>
@@ -11270,15 +11267,15 @@
         <v>24</v>
       </c>
       <c r="X133" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y133" s="5">
         <v>9.43</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B134" s="1">
         <v>144327</v>
@@ -11349,13 +11346,13 @@
       <c r="X134" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y134" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B135" s="1">
         <v>144328</v>
@@ -11424,15 +11421,15 @@
         <v>21</v>
       </c>
       <c r="X135" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y135" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B136" s="1">
         <v>144329</v>
@@ -11501,15 +11498,15 @@
         <v>21</v>
       </c>
       <c r="X136" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y136" s="5">
         <v>6.32</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B137" s="1">
         <v>144330</v>
@@ -11580,13 +11577,13 @@
       <c r="X137" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y137" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B138" s="1">
         <v>144331</v>
@@ -11657,13 +11654,13 @@
       <c r="X138" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y138" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139" s="1">
         <v>144332</v>
@@ -11732,15 +11729,15 @@
         <v>23</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y139" s="5">
         <v>7.93</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B140" s="1">
         <v>144333</v>
@@ -11809,15 +11806,15 @@
         <v>22</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y140" s="5">
         <v>7.07</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B141" s="1">
         <v>144334</v>
@@ -11888,13 +11885,13 @@
       <c r="X141" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y141" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B142" s="1">
         <v>144335</v>
@@ -11963,15 +11960,15 @@
         <v>22</v>
       </c>
       <c r="X142" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y142" s="5">
         <v>6.89</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B143" s="1">
         <v>144336</v>
@@ -12040,15 +12037,15 @@
         <v>24</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y143" s="5">
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B144" s="1">
         <v>144337</v>
@@ -12119,13 +12116,13 @@
       <c r="X144" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y144" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B145" s="1">
         <v>144338</v>
@@ -12194,15 +12191,15 @@
         <v>21</v>
       </c>
       <c r="X145" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y145" s="5">
         <v>7.14</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B146" s="1">
         <v>144339</v>
@@ -12271,15 +12268,15 @@
         <v>24</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y146" s="5">
         <v>8.68</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" s="1">
         <v>144368</v>
@@ -12350,13 +12347,13 @@
       <c r="X147" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y147" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B148" s="1">
         <v>144340</v>
@@ -12427,13 +12424,13 @@
       <c r="X148" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y148" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B149" s="1">
         <v>144341</v>
@@ -12504,13 +12501,13 @@
       <c r="X149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y149" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B150" s="1">
         <v>144342</v>
@@ -12579,15 +12576,15 @@
         <v>24</v>
       </c>
       <c r="X150" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y150" s="5">
         <v>8.57</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B151" s="1">
         <v>144343</v>
@@ -12658,13 +12655,13 @@
       <c r="X151" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y151" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B152" s="1">
         <v>144344</v>
@@ -12735,13 +12732,13 @@
       <c r="X152" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y152" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="1">
         <v>144345</v>
@@ -12812,13 +12809,13 @@
       <c r="X153" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y153" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="1">
         <v>144346</v>
@@ -12889,13 +12886,13 @@
       <c r="X154" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y154" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="1">
         <v>144347</v>
@@ -12966,13 +12963,13 @@
       <c r="X155" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y155" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B156" s="1">
         <v>144348</v>
@@ -13043,13 +13040,13 @@
       <c r="X156" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y156" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B157" s="1">
         <v>144369</v>
@@ -13118,15 +13115,15 @@
         <v>23</v>
       </c>
       <c r="X157" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y157" s="5">
         <v>7.68</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B158" s="1">
         <v>144349</v>
@@ -13195,15 +13192,15 @@
         <v>21</v>
       </c>
       <c r="X158" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y158" s="5">
         <v>6.93</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B159" s="1">
         <v>144350</v>
@@ -13272,15 +13269,15 @@
         <v>23</v>
       </c>
       <c r="X159" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y159" s="5">
         <v>7.43</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B160" s="1">
         <v>144351</v>
@@ -13349,15 +13346,15 @@
         <v>23</v>
       </c>
       <c r="X160" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y160" s="5">
         <v>7.32</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B161" s="1">
         <v>144352</v>
@@ -13428,13 +13425,13 @@
       <c r="X161" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y161" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B162" s="1">
         <v>144353</v>
@@ -13505,13 +13502,13 @@
       <c r="X162" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y162" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B163" s="1">
         <v>144355</v>
@@ -13580,15 +13577,15 @@
         <v>18</v>
       </c>
       <c r="X163" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y163" s="5">
         <v>6.46</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B164" s="1">
         <v>144367</v>
@@ -13659,13 +13656,13 @@
       <c r="X164" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y164" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B165" s="1">
         <v>144356</v>
@@ -13734,15 +13731,15 @@
         <v>22</v>
       </c>
       <c r="X165" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y165" s="5">
         <v>6.79</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B166" s="1">
         <v>144357</v>
@@ -13813,13 +13810,13 @@
       <c r="X166" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y166" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B167" s="1">
         <v>144358</v>
@@ -13890,13 +13887,13 @@
       <c r="X167" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y167" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B168" s="1">
         <v>144359</v>
@@ -13965,15 +13962,15 @@
         <v>23</v>
       </c>
       <c r="X168" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y168" s="5">
         <v>7.64</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B169" s="1">
         <v>144360</v>
@@ -14042,15 +14039,15 @@
         <v>23</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y169" s="5">
         <v>7.5</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B170" s="1">
         <v>144361</v>
@@ -14119,15 +14116,15 @@
         <v>23</v>
       </c>
       <c r="X170" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y170" s="5">
         <v>7.86</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B171" s="1">
         <v>144362</v>
@@ -14198,8 +14195,8 @@
       <c r="X171" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y171" s="5" t="s">
-        <v>15</v>
+      <c r="Y171" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
